--- a/documentation/Timeplan.xlsx
+++ b/documentation/Timeplan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF91670-19E8-B24D-981A-4A5291CCBEC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCC13FE-4BAA-4248-8316-DA84E18C721B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="1080" windowWidth="22940" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Erstellen Sie einen Leitplan, indem Sie wichtige Meilensteine und Aktivitäten auf diesem Arbeitsblatt eingeben.
 Der Titel dieses Arbeitsblatts befindet sich in Zelle C1. 
@@ -174,9 +174,6 @@
     <t>Coaching 1</t>
   </si>
   <si>
-    <t>Coaching 4</t>
-  </si>
-  <si>
     <t>Coaching 5</t>
   </si>
   <si>
@@ -212,9 +209,16 @@
     <t>Coaching 2</t>
   </si>
   <si>
-    <t>Customer Journey
+    <t>Coaching 3</t>
+  </si>
+  <si>
+    <t>User story
 Adjustment of forms
 ChatPot</t>
+  </si>
+  <si>
+    <t>Integration of forms
+Customer journey</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1016,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="3.5547240411599623E-2"/>
+          <c:y val="4.11599625818522E-2"/>
           <c:w val="1"/>
           <c:h val="0.95827541318139831"/>
         </c:manualLayout>
@@ -1068,7 +1072,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FF1D20B-0483-AB4F-90A9-44D648E1C22E}" type="CELLRANGE">
+                    <a:fld id="{04ECDCA5-40CF-9040-950D-77BDD8AD84DC}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1107,7 +1111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1754EE4-F4AB-D946-BFD2-B914E527B106}" type="CELLRANGE">
+                    <a:fld id="{E5A97EA2-C7CC-7346-8E5D-A0EDB07AC7B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1145,7 +1149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12AD2295-1D29-3F48-A9D9-697B21FCC49D}" type="CELLRANGE">
+                    <a:fld id="{9BA814B3-5FE2-664C-91B5-B78119BE1A6C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1177,7 +1181,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{689DFA1D-CED0-604D-85DE-1925676C7901}" type="CELLRANGE">
+                    <a:fld id="{7A0FAFF4-9F65-E446-9B2E-A21EA5542F90}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1216,7 +1220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECD877F1-19DB-C740-BC71-C11E22D0C1ED}" type="CELLRANGE">
+                    <a:fld id="{C96E2C82-3ABD-A94A-B540-B01DEF050371}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1254,7 +1258,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{103BE08E-E8E4-1642-AB36-51D3CBE51B5F}" type="CELLRANGE">
+                    <a:fld id="{4C31DDF6-93AF-8A4E-8038-50A116BC0D8C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1292,7 +1296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC935380-2E95-F843-83E2-CF39481163A5}" type="CELLRANGE">
+                    <a:fld id="{90F05172-65D7-6C4C-A0A6-E13B4EDA621E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1324,7 +1328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32D3A03F-5AD1-0A4D-8D66-F68EBF42A040}" type="CELLRANGE">
+                    <a:fld id="{F073FFEB-24A3-E646-8327-6D00E9CE0232}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1363,7 +1367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{247F7344-8728-B442-B40C-334EFCF8B520}" type="CELLRANGE">
+                    <a:fld id="{740C9A5A-60A5-CD4D-8568-3DC5753A5F89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1395,7 +1399,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{979369DB-5A97-444C-A635-47C683474E16}" type="CELLRANGE">
+                    <a:fld id="{D7A7F3AA-E1B6-8041-BDA5-5232281206C5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1423,13 +1427,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1711368722294497E-2"/>
+                  <c:y val="4.6772684752104769E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB008D88-1909-304B-9792-1C3358D501CF}" type="CELLRANGE">
-                      <a:rPr lang="de-DE"/>
+                    <a:fld id="{073D2E88-4DEA-C544-8A49-BE68F283702D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1446,7 +1456,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1461,7 +1470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A25C41C-EE7B-7146-9C0E-88E79C7BB64E}" type="CELLRANGE">
+                    <a:fld id="{AF22B48D-74EF-0E47-BC9E-7B0623FBE89D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1494,7 +1503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9582DA03-37CE-0E44-A50C-BA8073251A22}" type="CELLRANGE">
+                    <a:fld id="{19059296-470E-1544-8D1F-ECA3A19FC654}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1622,18 +1631,19 @@
                     <c:v>Coaching 2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Customer Journey
+                    <c:v>User story
 Adjustment of forms
 ChatPot</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Coaching 4</c:v>
+                    <c:v>Coaching 3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Coaching 5</c:v>
+                    <c:v>Integration of forms
+Customer journey</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>00.01.00</c:v>
+                    <c:v>Coaching 5</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>00.01.00</c:v>
@@ -1671,10 +1681,10 @@
                     <c:v>16.05.19</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>23.05.19</c:v>
+                    <c:v>16.05.19</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>00.01.00</c:v>
+                    <c:v>23.05.19</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>00.01.00</c:v>
@@ -1720,10 +1730,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.5</c:v>
@@ -1766,18 +1776,19 @@
                     <c:v>Coaching 2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Customer Journey
+                    <c:v>User story
 Adjustment of forms
 ChatPot</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Coaching 4</c:v>
+                    <c:v>Coaching 3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Coaching 5</c:v>
+                    <c:v>Integration of forms
+Customer journey</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>00.01.00</c:v>
+                    <c:v>Coaching 5</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>00.01.00</c:v>
@@ -3318,8 +3329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="LeitplanweitereZeilen" displayName="LeitplanweitereZeilen" ref="B2:E16">
-  <autoFilter ref="B2:E16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="LeitplanweitereZeilen" displayName="LeitplanweitereZeilen" ref="B2:E17">
+  <autoFilter ref="B2:E17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nr." totalsRowLabel="Ergebnis" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>ROW($A1)</calculatedColumnFormula>
@@ -3646,10 +3657,10 @@
     <tabColor theme="8"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3734,7 +3745,7 @@
         <v>43559</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -3764,7 +3775,7 @@
         <v>43566</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.15">
@@ -3779,7 +3790,7 @@
         <v>43580</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3794,7 +3805,7 @@
         <v>43587</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -3809,7 +3820,7 @@
         <v>43594</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.15">
@@ -3839,65 +3850,80 @@
         <v>43601</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="11" t="e">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+      <c r="B13" s="11">
+        <f>ROW($A11)</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="25">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>43601</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="e">
         <f>ROW(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C14" s="25">
         <v>0.5</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <v>43608</v>
       </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="11">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="11">
         <f>ROW($A9)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C15" s="25">
         <v>-1</v>
       </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B16" s="11">
         <f>ROW($A10)</f>
         <v>10</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C16" s="25">
         <v>0.5</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="11">
+      <c r="D16" s="14"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="11">
         <f>ROW($A12)</f>
         <v>12</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C17" s="25">
         <v>1</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -3921,7 +3947,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4052,8 +4078,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4210,14 +4236,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <f>Meilensteine!D11</f>
         <v>43594</v>
       </c>
       <c r="C12" s="6" t="str">
         <f>Meilensteine!E11</f>
-        <v>Customer Journey
+        <v>User story
 Adjustment of forms
 ChatPot</v>
       </c>
@@ -4233,52 +4259,53 @@
       </c>
       <c r="C13" s="6" t="str">
         <f>Meilensteine!E12</f>
-        <v>Coaching 4</v>
+        <v>Coaching 3</v>
       </c>
       <c r="D13" s="27">
         <f>Meilensteine!C12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
         <f>Meilensteine!D13</f>
-        <v>43608</v>
+        <v>43601</v>
       </c>
       <c r="C14" s="6" t="str">
         <f>Meilensteine!E13</f>
-        <v>Coaching 5</v>
+        <v>Integration of forms
+Customer journey</v>
       </c>
       <c r="D14" s="27">
         <f>Meilensteine!C13</f>
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
         <f>Meilensteine!D14</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
+        <v>43608</v>
+      </c>
+      <c r="C15" s="6" t="str">
         <f>Meilensteine!E14</f>
-        <v>0</v>
+        <v>Coaching 5</v>
       </c>
       <c r="D15" s="27">
         <f>Meilensteine!C14</f>
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8">
-        <f>Meilensteine!D15</f>
+        <f>Meilensteine!D16</f>
         <v>0</v>
       </c>
       <c r="C16" s="6">
-        <f>Meilensteine!E15</f>
+        <f>Meilensteine!E16</f>
         <v>0</v>
       </c>
       <c r="D16" s="27">
-        <f>Meilensteine!C15</f>
+        <f>Meilensteine!C16</f>
         <v>0.5</v>
       </c>
     </row>
@@ -4310,7 +4337,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -4318,7 +4345,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -4326,7 +4353,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -4340,7 +4367,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4348,7 +4375,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">

--- a/documentation/Timeplan.xlsx
+++ b/documentation/Timeplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCC13FE-4BAA-4248-8316-DA84E18C721B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F71121-AD10-314A-9793-C61480DBF769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="1080" windowWidth="22940" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 ChatPot</t>
   </si>
   <si>
-    <t>Integration of forms
+    <t>Integration of emails
 Customer journey</t>
   </si>
 </sst>
@@ -1072,7 +1072,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04ECDCA5-40CF-9040-950D-77BDD8AD84DC}" type="CELLRANGE">
+                    <a:fld id="{9E5F271A-A89E-6943-A59E-04D9CF6A04E4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1111,7 +1111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5A97EA2-C7CC-7346-8E5D-A0EDB07AC7B6}" type="CELLRANGE">
+                    <a:fld id="{6C9D672C-8C34-1344-9D56-4C0FE1071982}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1149,7 +1149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BA814B3-5FE2-664C-91B5-B78119BE1A6C}" type="CELLRANGE">
+                    <a:fld id="{F2E50ED6-BFA4-BD43-AC75-E346DC0AB2A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1181,7 +1181,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A0FAFF4-9F65-E446-9B2E-A21EA5542F90}" type="CELLRANGE">
+                    <a:fld id="{92F49700-55E9-8E4F-9D60-0DFA70F48427}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1220,7 +1220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C96E2C82-3ABD-A94A-B540-B01DEF050371}" type="CELLRANGE">
+                    <a:fld id="{561918E2-C25A-C442-9443-7AF1DDF42D46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1258,7 +1258,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C31DDF6-93AF-8A4E-8038-50A116BC0D8C}" type="CELLRANGE">
+                    <a:fld id="{CC12EC8B-E513-1D4B-8EC1-57E2AB047E02}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1296,7 +1296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90F05172-65D7-6C4C-A0A6-E13B4EDA621E}" type="CELLRANGE">
+                    <a:fld id="{FAC367B7-3671-D348-8CEB-E905D764F3D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1328,7 +1328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F073FFEB-24A3-E646-8327-6D00E9CE0232}" type="CELLRANGE">
+                    <a:fld id="{B4001E52-05F4-084C-9C9E-046E6068D631}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1367,7 +1367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{740C9A5A-60A5-CD4D-8568-3DC5753A5F89}" type="CELLRANGE">
+                    <a:fld id="{9298136A-B8F8-8B47-B673-62B73612FDD3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1399,7 +1399,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7A7F3AA-E1B6-8041-BDA5-5232281206C5}" type="CELLRANGE">
+                    <a:fld id="{37F948B3-4C01-2C4C-9B07-B4C2C5EA2E0B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1438,7 +1438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{073D2E88-4DEA-C544-8A49-BE68F283702D}" type="CELLRANGE">
+                    <a:fld id="{03CCE0C3-C3D5-F74B-A3F8-C9704D294C1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1470,7 +1470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF22B48D-74EF-0E47-BC9E-7B0623FBE89D}" type="CELLRANGE">
+                    <a:fld id="{001A1D0F-06D1-1D4C-BC97-6A4D2A3A357F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1503,7 +1503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19059296-470E-1544-8D1F-ECA3A19FC654}" type="CELLRANGE">
+                    <a:fld id="{C7EF6369-78D2-E842-BC3C-029BA251A9C3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1639,7 +1639,7 @@
                     <c:v>Coaching 3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Integration of forms
+                    <c:v>Integration of emails
 Customer journey</c:v>
                   </c:pt>
                   <c:pt idx="11">
@@ -1784,7 +1784,7 @@
                     <c:v>Coaching 3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Integration of forms
+                    <c:v>Integration of emails
 Customer journey</c:v>
                   </c:pt>
                   <c:pt idx="11">
@@ -3660,7 +3660,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3946,8 +3946,8 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="C14" s="6" t="str">
         <f>Meilensteine!E13</f>
-        <v>Integration of forms
+        <v>Integration of emails
 Customer journey</v>
       </c>
       <c r="D14" s="27">

--- a/documentation/Timeplan.xlsx
+++ b/documentation/Timeplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F71121-AD10-314A-9793-C61480DBF769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F1F48C-546B-1440-88F6-9C4E20B8C077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="1080" windowWidth="22940" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>Coaching 1</t>
   </si>
   <si>
-    <t>Coaching 5</t>
-  </si>
-  <si>
     <t>April</t>
   </si>
   <si>
@@ -219,19 +216,24 @@
   <si>
     <t>Integration of emails
 Customer journey</t>
+  </si>
+  <si>
+    <t>Testng
+Finalization of presentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="[$-407]d\ mmm;@"/>
     <numFmt numFmtId="168" formatCode="[$-407]d/\ mmm;@"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -740,7 +742,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -805,6 +807,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20 % - Akzent1" xfId="27" builtinId="30" customBuiltin="1"/>
@@ -1072,7 +1080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E5F271A-A89E-6943-A59E-04D9CF6A04E4}" type="CELLRANGE">
+                    <a:fld id="{3E2236E0-0BEC-434A-B6EF-B961F51AFFC7}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1111,7 +1119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C9D672C-8C34-1344-9D56-4C0FE1071982}" type="CELLRANGE">
+                    <a:fld id="{B3827D64-FD0F-EB4D-8F6A-4C7623974344}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1149,7 +1157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2E50ED6-BFA4-BD43-AC75-E346DC0AB2A1}" type="CELLRANGE">
+                    <a:fld id="{14B83154-3E30-0C4E-AFDB-307B6A569149}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1181,7 +1189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92F49700-55E9-8E4F-9D60-0DFA70F48427}" type="CELLRANGE">
+                    <a:fld id="{4FBBBF3B-BD91-254E-955D-3142290C299F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1220,7 +1228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{561918E2-C25A-C442-9443-7AF1DDF42D46}" type="CELLRANGE">
+                    <a:fld id="{0662D30D-7743-CD45-B06E-7D8C1A5C09FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1258,7 +1266,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC12EC8B-E513-1D4B-8EC1-57E2AB047E02}" type="CELLRANGE">
+                    <a:fld id="{670DFC1C-2D80-B947-BB91-35B5A1AA6372}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1296,7 +1304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FAC367B7-3671-D348-8CEB-E905D764F3D3}" type="CELLRANGE">
+                    <a:fld id="{0B4E553D-E31C-984B-8CC1-953BFC5190DD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1328,7 +1336,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4001E52-05F4-084C-9C9E-046E6068D631}" type="CELLRANGE">
+                    <a:fld id="{2991B3D8-00A5-3447-8141-1DDA76DCD108}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1367,7 +1375,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9298136A-B8F8-8B47-B673-62B73612FDD3}" type="CELLRANGE">
+                    <a:fld id="{04CC511B-1C70-E044-BDEB-581A60989BDC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1399,7 +1407,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37F948B3-4C01-2C4C-9B07-B4C2C5EA2E0B}" type="CELLRANGE">
+                    <a:fld id="{33B58BDE-C4BD-4147-81B9-B0EB928E99F0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1438,7 +1446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03CCE0C3-C3D5-F74B-A3F8-C9704D294C1C}" type="CELLRANGE">
+                    <a:fld id="{5DD1AD61-1946-0248-A1F7-9E36CB97B811}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1470,7 +1478,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{001A1D0F-06D1-1D4C-BC97-6A4D2A3A357F}" type="CELLRANGE">
+                    <a:fld id="{34F418B1-4561-1648-BD6C-236ED1BA07C6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1503,7 +1511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7EF6369-78D2-E842-BC3C-029BA251A9C3}" type="CELLRANGE">
+                    <a:fld id="{60B105A9-0A80-C749-B42B-9F658484CD5A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1642,9 +1650,6 @@
                     <c:v>Integration of emails
 Customer journey</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Coaching 5</c:v>
-                  </c:pt>
                   <c:pt idx="12">
                     <c:v>00.01.00</c:v>
                   </c:pt>
@@ -1682,9 +1687,6 @@
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>16.05.19</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>23.05.19</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>00.01.00</c:v>
@@ -1733,7 +1735,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.5</c:v>
@@ -1786,9 +1788,6 @@
                   <c:pt idx="10">
                     <c:v>Integration of emails
 Customer journey</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Coaching 5</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>00.01.00</c:v>
@@ -2508,8 +2507,8 @@
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3187699</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
@@ -3660,7 +3659,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3745,7 +3744,7 @@
         <v>43559</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -3775,7 +3774,7 @@
         <v>43566</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.15">
@@ -3790,7 +3789,7 @@
         <v>43580</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3805,7 +3804,7 @@
         <v>43587</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -3820,7 +3819,7 @@
         <v>43594</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.15">
@@ -3835,7 +3834,7 @@
         <v>43594</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -3850,7 +3849,7 @@
         <v>43601</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.15">
@@ -3865,22 +3864,22 @@
         <v>43601</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="e">
         <f>ROW(#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="C14" s="25">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="D14" s="14">
         <v>43608</v>
       </c>
-      <c r="E14" t="s">
-        <v>36</v>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3946,15 +3945,15 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="18" customWidth="1"/>
     <col min="2" max="3" width="40.83203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="55" style="13" customWidth="1"/>
+    <col min="4" max="4" width="60" style="13" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" style="13" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="13"/>
   </cols>
@@ -4078,8 +4077,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4282,17 +4281,17 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="8">
-        <f>Meilensteine!D14</f>
-        <v>43608</v>
-      </c>
-      <c r="C15" s="6" t="str">
-        <f>Meilensteine!E14</f>
-        <v>Coaching 5</v>
-      </c>
-      <c r="D15" s="27">
-        <f>Meilensteine!C14</f>
-        <v>0.5</v>
+      <c r="B15" s="28" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine!D15)=0,"",INDEX(LeitplanweitereZeilen[],Meilensteine!$B15+$B$23,3)),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="29" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine!E15)=0,"",INDEX(LeitplanweitereZeilen[],Meilensteine!$B15+$B$23,4)),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="27" t="str">
+        <f>IFERROR(INDEX(LeitplanweitereZeilen[],Meilensteine!$B15+$B$23,2),"")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4337,7 +4336,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -4345,7 +4344,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -4353,7 +4352,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -4367,7 +4366,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4375,7 +4374,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">

--- a/documentation/Timeplan.xlsx
+++ b/documentation/Timeplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F1F48C-546B-1440-88F6-9C4E20B8C077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F71121-AD10-314A-9793-C61480DBF769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="1080" windowWidth="22940" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,6 +174,9 @@
     <t>Coaching 1</t>
   </si>
   <si>
+    <t>Coaching 5</t>
+  </si>
+  <si>
     <t>April</t>
   </si>
   <si>
@@ -216,24 +219,19 @@
   <si>
     <t>Integration of emails
 Customer journey</t>
-  </si>
-  <si>
-    <t>Testng
-Finalization of presentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="[$-407]d\ mmm;@"/>
     <numFmt numFmtId="168" formatCode="[$-407]d/\ mmm;@"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -742,7 +740,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -807,12 +805,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20 % - Akzent1" xfId="27" builtinId="30" customBuiltin="1"/>
@@ -1080,7 +1072,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E2236E0-0BEC-434A-B6EF-B961F51AFFC7}" type="CELLRANGE">
+                    <a:fld id="{9E5F271A-A89E-6943-A59E-04D9CF6A04E4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1119,7 +1111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3827D64-FD0F-EB4D-8F6A-4C7623974344}" type="CELLRANGE">
+                    <a:fld id="{6C9D672C-8C34-1344-9D56-4C0FE1071982}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1157,7 +1149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14B83154-3E30-0C4E-AFDB-307B6A569149}" type="CELLRANGE">
+                    <a:fld id="{F2E50ED6-BFA4-BD43-AC75-E346DC0AB2A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1189,7 +1181,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FBBBF3B-BD91-254E-955D-3142290C299F}" type="CELLRANGE">
+                    <a:fld id="{92F49700-55E9-8E4F-9D60-0DFA70F48427}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1228,7 +1220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0662D30D-7743-CD45-B06E-7D8C1A5C09FE}" type="CELLRANGE">
+                    <a:fld id="{561918E2-C25A-C442-9443-7AF1DDF42D46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1266,7 +1258,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{670DFC1C-2D80-B947-BB91-35B5A1AA6372}" type="CELLRANGE">
+                    <a:fld id="{CC12EC8B-E513-1D4B-8EC1-57E2AB047E02}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1304,7 +1296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B4E553D-E31C-984B-8CC1-953BFC5190DD}" type="CELLRANGE">
+                    <a:fld id="{FAC367B7-3671-D348-8CEB-E905D764F3D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1336,7 +1328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2991B3D8-00A5-3447-8141-1DDA76DCD108}" type="CELLRANGE">
+                    <a:fld id="{B4001E52-05F4-084C-9C9E-046E6068D631}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1375,7 +1367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04CC511B-1C70-E044-BDEB-581A60989BDC}" type="CELLRANGE">
+                    <a:fld id="{9298136A-B8F8-8B47-B673-62B73612FDD3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1407,7 +1399,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33B58BDE-C4BD-4147-81B9-B0EB928E99F0}" type="CELLRANGE">
+                    <a:fld id="{37F948B3-4C01-2C4C-9B07-B4C2C5EA2E0B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1446,7 +1438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DD1AD61-1946-0248-A1F7-9E36CB97B811}" type="CELLRANGE">
+                    <a:fld id="{03CCE0C3-C3D5-F74B-A3F8-C9704D294C1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1478,7 +1470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34F418B1-4561-1648-BD6C-236ED1BA07C6}" type="CELLRANGE">
+                    <a:fld id="{001A1D0F-06D1-1D4C-BC97-6A4D2A3A357F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1511,7 +1503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60B105A9-0A80-C749-B42B-9F658484CD5A}" type="CELLRANGE">
+                    <a:fld id="{C7EF6369-78D2-E842-BC3C-029BA251A9C3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1650,6 +1642,9 @@
                     <c:v>Integration of emails
 Customer journey</c:v>
                   </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Coaching 5</c:v>
+                  </c:pt>
                   <c:pt idx="12">
                     <c:v>00.01.00</c:v>
                   </c:pt>
@@ -1687,6 +1682,9 @@
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>16.05.19</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>23.05.19</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>00.01.00</c:v>
@@ -1735,7 +1733,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.5</c:v>
@@ -1788,6 +1786,9 @@
                   <c:pt idx="10">
                     <c:v>Integration of emails
 Customer journey</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Coaching 5</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>00.01.00</c:v>
@@ -2507,8 +2508,8 @@
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3187699</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
@@ -3659,7 +3660,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3744,7 +3745,7 @@
         <v>43559</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -3774,7 +3775,7 @@
         <v>43566</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.15">
@@ -3789,7 +3790,7 @@
         <v>43580</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3804,7 +3805,7 @@
         <v>43587</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -3819,7 +3820,7 @@
         <v>43594</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.15">
@@ -3834,7 +3835,7 @@
         <v>43594</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -3849,7 +3850,7 @@
         <v>43601</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.15">
@@ -3864,22 +3865,22 @@
         <v>43601</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="e">
         <f>ROW(#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="C14" s="25">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="14">
         <v>43608</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
+      <c r="E14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3945,15 +3946,15 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="18" customWidth="1"/>
     <col min="2" max="3" width="40.83203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="60" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55" style="13" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" style="13" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="13"/>
   </cols>
@@ -4077,8 +4078,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4281,17 +4282,17 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine!D15)=0,"",INDEX(LeitplanweitereZeilen[],Meilensteine!$B15+$B$23,3)),"")</f>
-        <v/>
-      </c>
-      <c r="C15" s="29" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine!E15)=0,"",INDEX(LeitplanweitereZeilen[],Meilensteine!$B15+$B$23,4)),"")</f>
-        <v/>
-      </c>
-      <c r="D15" s="27" t="str">
-        <f>IFERROR(INDEX(LeitplanweitereZeilen[],Meilensteine!$B15+$B$23,2),"")</f>
-        <v/>
+      <c r="B15" s="8">
+        <f>Meilensteine!D14</f>
+        <v>43608</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>Meilensteine!E14</f>
+        <v>Coaching 5</v>
+      </c>
+      <c r="D15" s="27">
+        <f>Meilensteine!C14</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4336,7 +4337,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -4344,7 +4345,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -4352,7 +4353,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -4366,7 +4367,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4374,7 +4375,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
